--- a/Detailed Test Cases.xlsx
+++ b/Detailed Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="874" firstSheet="53" activeTab="64"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="874" firstSheet="53" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="TC_LF_001" sheetId="10" r:id="rId1"/>
@@ -2442,15 +2442,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2464,6 +2455,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2907,7 +2907,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -2940,7 +2940,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -2958,7 +2958,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -2975,7 +2975,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7"/>
@@ -3143,7 +3143,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -3176,7 +3176,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -3192,7 +3192,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -3211,7 +3211,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -3229,7 +3229,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -3247,7 +3247,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -3262,7 +3262,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -3277,7 +3277,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3426,7 +3426,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -3459,7 +3459,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -3475,7 +3475,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -3494,7 +3494,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -3512,7 +3512,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -3530,7 +3530,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -3545,7 +3545,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -3560,7 +3560,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3709,7 +3709,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -3742,7 +3742,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -3758,7 +3758,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -3777,7 +3777,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -3795,7 +3795,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -3813,7 +3813,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7">
@@ -3828,7 +3828,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -3843,7 +3843,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3992,7 +3992,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -4025,7 +4025,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -4041,7 +4041,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -4060,7 +4060,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -4075,7 +4075,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -4090,7 +4090,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4236,7 +4236,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -4269,7 +4269,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -4285,7 +4285,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
@@ -4302,7 +4302,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -4320,7 +4320,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -4336,7 +4336,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -4352,7 +4352,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -4367,7 +4367,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4516,7 +4516,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -4549,7 +4549,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -4565,7 +4565,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
@@ -4582,7 +4582,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7">
@@ -4598,7 +4598,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -4616,7 +4616,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -4632,7 +4632,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -4647,7 +4647,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4793,7 +4793,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -4826,7 +4826,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -4842,7 +4842,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -4861,7 +4861,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -4879,7 +4879,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -4897,7 +4897,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -4913,7 +4913,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -4928,7 +4928,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5374,7 +5374,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5392,7 +5392,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -5407,7 +5407,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -5423,7 +5423,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -5440,7 +5440,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7"/>
@@ -5591,7 +5591,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -5624,7 +5624,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -5640,7 +5640,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -5659,7 +5659,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -5677,7 +5677,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -5695,7 +5695,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -5711,7 +5711,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -5726,7 +5726,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5875,7 +5875,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -5908,7 +5908,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -5926,7 +5926,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
@@ -5943,7 +5943,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7"/>
@@ -6108,7 +6108,7 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -6126,7 +6126,7 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -6143,7 +6143,7 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -6161,7 +6161,7 @@
       <c r="E14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -6182,7 +6182,7 @@
       <c r="E15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G15" s="15" t="s">
@@ -6202,7 +6202,7 @@
       <c r="E16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G16" s="15" t="s">
@@ -6222,7 +6222,7 @@
       <c r="E17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -6240,7 +6240,7 @@
       <c r="E18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="22" t="s">
         <v>446</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -6257,7 +6257,7 @@
       <c r="E19" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="22" t="s">
         <v>453</v>
       </c>
       <c r="G19" s="14" t="s">
@@ -6402,14 +6402,14 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="25"/>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6420,14 +6420,14 @@
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -6436,14 +6436,14 @@
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -6452,14 +6452,14 @@
       <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -6469,14 +6469,14 @@
       <c r="C15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7"/>
@@ -6643,10 +6643,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6661,10 +6661,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -6676,10 +6676,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -6694,10 +6694,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -6711,10 +6711,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -6726,10 +6726,10 @@
       <c r="E16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -6741,10 +6741,10 @@
       <c r="E17" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -6756,10 +6756,10 @@
       <c r="E18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6902,10 +6902,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6920,10 +6920,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -6935,10 +6935,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -6953,10 +6953,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -6970,10 +6970,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -6985,10 +6985,10 @@
       <c r="E16" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="7"/>
@@ -7141,10 +7141,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7159,10 +7159,10 @@
       <c r="E12" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -7174,10 +7174,10 @@
       <c r="E13" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -7192,10 +7192,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -7209,10 +7209,10 @@
       <c r="E15" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -7224,10 +7224,10 @@
       <c r="E16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="7"/>
@@ -7380,10 +7380,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7398,10 +7398,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -7414,10 +7414,10 @@
       <c r="E13" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -7429,10 +7429,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -7447,10 +7447,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -7464,10 +7464,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -7479,10 +7479,10 @@
       <c r="E17" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -7635,10 +7635,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7653,10 +7653,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -7669,10 +7669,10 @@
       <c r="E13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -7684,10 +7684,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -7702,10 +7702,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -7719,10 +7719,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -7734,10 +7734,10 @@
       <c r="E17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -7891,10 +7891,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7909,10 +7909,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -7925,10 +7925,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -7940,10 +7940,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -7958,10 +7958,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -7975,10 +7975,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -7990,10 +7990,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -8005,10 +8005,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
@@ -8156,10 +8156,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8174,10 +8174,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -8190,10 +8190,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -8205,10 +8205,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -8223,10 +8223,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -8240,10 +8240,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -8255,10 +8255,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -8270,10 +8270,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="7">
@@ -8285,10 +8285,10 @@
       <c r="E19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8431,10 +8431,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8449,10 +8449,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -8465,10 +8465,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -8480,10 +8480,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -8498,10 +8498,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -8515,10 +8515,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -8530,10 +8530,10 @@
       <c r="E17" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -8545,10 +8545,10 @@
       <c r="E18" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="7">
@@ -8560,10 +8560,10 @@
       <c r="E19" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8709,7 +8709,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -8742,7 +8742,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -8760,7 +8760,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
@@ -8777,7 +8777,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7"/>
@@ -8942,10 +8942,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8960,10 +8960,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -8976,10 +8976,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -8991,10 +8991,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -9009,10 +9009,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -9026,10 +9026,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -9041,10 +9041,10 @@
       <c r="E17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7">
@@ -9056,10 +9056,10 @@
       <c r="E18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="45">
       <c r="B19" s="7">
@@ -9071,10 +9071,10 @@
       <c r="E19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7">
@@ -9086,10 +9086,10 @@
       <c r="E20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9232,10 +9232,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9250,10 +9250,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -9266,10 +9266,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -9281,10 +9281,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -9299,10 +9299,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -9316,10 +9316,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -9331,10 +9331,10 @@
       <c r="E17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -9346,10 +9346,10 @@
       <c r="E18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="45">
       <c r="B19" s="7">
@@ -9361,10 +9361,10 @@
       <c r="E19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="45">
       <c r="B20" s="7">
@@ -9376,10 +9376,10 @@
       <c r="E20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
@@ -9525,10 +9525,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9543,10 +9543,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -9559,10 +9559,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -9574,10 +9574,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -9592,10 +9592,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -9609,10 +9609,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -9624,10 +9624,10 @@
       <c r="E17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -9639,10 +9639,10 @@
       <c r="E18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="45">
       <c r="B19" s="7">
@@ -9654,10 +9654,10 @@
       <c r="E19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="45">
       <c r="B20" s="7">
@@ -9669,10 +9669,10 @@
       <c r="E20" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
@@ -9818,10 +9818,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9836,10 +9836,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -9852,10 +9852,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -9867,10 +9867,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -9885,10 +9885,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -9902,10 +9902,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -9917,10 +9917,10 @@
       <c r="E17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -9932,10 +9932,10 @@
       <c r="E18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="45">
       <c r="B19" s="7">
@@ -9947,10 +9947,10 @@
       <c r="E19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="60">
       <c r="B20" s="7">
@@ -9962,10 +9962,10 @@
       <c r="E20" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7">
@@ -9977,10 +9977,10 @@
       <c r="E21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="F21" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="7">
@@ -9992,10 +9992,10 @@
       <c r="E22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G22" s="18"/>
+      <c r="F22" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10138,10 +10138,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10156,10 +10156,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="21"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -10172,10 +10172,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="21"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -10187,10 +10187,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="21"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -10205,10 +10205,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="21"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -10222,10 +10222,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="21"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -10237,10 +10237,10 @@
       <c r="E17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="21"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -10252,10 +10252,10 @@
       <c r="E18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="21"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7" ht="45">
       <c r="B19" s="7">
@@ -10267,10 +10267,10 @@
       <c r="E19" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="21"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7">
@@ -10282,10 +10282,10 @@
       <c r="E20" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="21"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
@@ -10435,10 +10435,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10453,10 +10453,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -10468,10 +10468,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -10486,10 +10486,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -10503,10 +10503,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -10519,10 +10519,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="7"/>
@@ -10681,10 +10681,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10699,10 +10699,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -10714,10 +10714,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -10732,10 +10732,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -10749,10 +10749,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -10765,10 +10765,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="45">
       <c r="B17" s="7">
@@ -10781,10 +10781,10 @@
       <c r="E17" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -10937,10 +10937,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10955,10 +10955,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -10970,10 +10970,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -10988,10 +10988,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -11005,10 +11005,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -11021,10 +11021,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="45">
       <c r="B17" s="7">
@@ -11037,10 +11037,10 @@
       <c r="E17" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -11052,10 +11052,10 @@
       <c r="E18" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
@@ -11203,10 +11203,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11221,10 +11221,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -11236,10 +11236,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -11254,10 +11254,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -11271,10 +11271,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -11287,10 +11287,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="60">
       <c r="B17" s="7">
@@ -11303,10 +11303,10 @@
       <c r="E17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -11459,10 +11459,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11477,10 +11477,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -11492,10 +11492,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -11510,10 +11510,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -11527,10 +11527,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -11543,10 +11543,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="60">
       <c r="B17" s="7">
@@ -11559,10 +11559,10 @@
       <c r="E17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -11574,10 +11574,10 @@
       <c r="E18" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
@@ -11728,7 +11728,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11746,7 +11746,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -11761,7 +11761,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7"/>
@@ -11940,10 +11940,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11958,10 +11958,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -11973,10 +11973,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -11991,10 +11991,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -12008,10 +12008,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -12024,10 +12024,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="60">
       <c r="B17" s="7">
@@ -12040,10 +12040,10 @@
       <c r="E17" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -12196,10 +12196,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12214,10 +12214,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -12229,10 +12229,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -12247,10 +12247,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -12264,10 +12264,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -12280,10 +12280,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="60">
       <c r="B17" s="7">
@@ -12296,10 +12296,10 @@
       <c r="E17" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -12311,10 +12311,10 @@
       <c r="E18" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
@@ -12462,10 +12462,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12480,10 +12480,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -12495,10 +12495,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -12513,10 +12513,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -12530,10 +12530,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -12546,10 +12546,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -12562,10 +12562,10 @@
       <c r="E17" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -12718,10 +12718,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12736,10 +12736,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -12751,10 +12751,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -12769,10 +12769,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -12786,10 +12786,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -12802,10 +12802,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -12818,10 +12818,10 @@
       <c r="E17" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -12974,10 +12974,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -12992,10 +12992,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -13007,10 +13007,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -13025,10 +13025,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -13042,10 +13042,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -13058,10 +13058,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -13074,10 +13074,10 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7"/>
@@ -13230,7 +13230,7 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -13248,7 +13248,7 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -13265,7 +13265,7 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -13285,7 +13285,7 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -13304,7 +13304,7 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -13322,7 +13322,7 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -13340,7 +13340,7 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -13360,7 +13360,7 @@
       <c r="E18" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -13522,7 +13522,7 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -13540,7 +13540,7 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -13557,7 +13557,7 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -13577,7 +13577,7 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -13596,7 +13596,7 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -13614,7 +13614,7 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -13632,7 +13632,7 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -13652,7 +13652,7 @@
       <c r="E18" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -13817,10 +13817,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13835,10 +13835,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13852,10 +13852,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13872,10 +13872,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="9"/>
@@ -13891,10 +13891,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13909,10 +13909,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13927,10 +13927,10 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13947,10 +13947,10 @@
       <c r="E18" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13967,12 +13967,12 @@
       <c r="F19" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="G20" s="24"/>
+      <c r="G20" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14116,10 +14116,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14134,10 +14134,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -14149,10 +14149,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -14167,10 +14167,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -14184,10 +14184,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -14200,10 +14200,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -14216,10 +14216,10 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="7">
@@ -14232,10 +14232,10 @@
       <c r="E18" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7"/>
@@ -14246,10 +14246,10 @@
       <c r="E19" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7"/>
@@ -14260,10 +14260,10 @@
       <c r="E20" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7">
@@ -14275,10 +14275,10 @@
       <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14421,7 +14421,7 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -14439,7 +14439,7 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -14456,7 +14456,7 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -14476,7 +14476,7 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -14495,7 +14495,7 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -14513,7 +14513,7 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -14531,7 +14531,7 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -14549,7 +14549,7 @@
       <c r="E18" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -14567,7 +14567,7 @@
       <c r="E19" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G19" s="13" t="s">
@@ -14585,7 +14585,7 @@
       <c r="E20" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G20" s="13" t="s">
@@ -14750,7 +14750,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14768,7 +14768,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -14783,7 +14783,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -14801,7 +14801,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
@@ -14818,7 +14818,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7"/>
@@ -14983,10 +14983,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15001,10 +15001,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -15016,10 +15016,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -15034,10 +15034,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -15051,10 +15051,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -15067,10 +15067,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -15083,10 +15083,10 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -15099,10 +15099,10 @@
       <c r="E18" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -15115,10 +15115,10 @@
       <c r="E19" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7">
@@ -15131,10 +15131,10 @@
       <c r="E20" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7">
@@ -15146,10 +15146,10 @@
       <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15292,10 +15292,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15310,10 +15310,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -15325,10 +15325,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -15343,10 +15343,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -15360,10 +15360,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -15376,10 +15376,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -15392,10 +15392,10 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -15408,10 +15408,10 @@
       <c r="E18" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="7">
@@ -15424,10 +15424,10 @@
       <c r="E19" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7">
@@ -15440,10 +15440,10 @@
       <c r="E20" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7">
@@ -15455,10 +15455,10 @@
       <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15601,10 +15601,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15619,10 +15619,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -15634,10 +15634,10 @@
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -15652,10 +15652,10 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -15669,10 +15669,10 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -15685,10 +15685,10 @@
       <c r="E16" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="7">
@@ -15701,10 +15701,10 @@
       <c r="E17" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -15717,10 +15717,10 @@
       <c r="E18" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="7">
@@ -15733,10 +15733,10 @@
       <c r="E19" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7">
@@ -15751,10 +15751,10 @@
       <c r="E20" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7">
@@ -15766,10 +15766,10 @@
       <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15912,10 +15912,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -15930,10 +15930,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -15946,10 +15946,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -15961,10 +15961,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -15979,10 +15979,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -15996,10 +15996,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -16011,10 +16011,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -16026,10 +16026,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="7">
@@ -16041,10 +16041,10 @@
       <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16187,10 +16187,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16205,10 +16205,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -16221,10 +16221,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -16236,10 +16236,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -16254,10 +16254,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -16271,10 +16271,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -16286,10 +16286,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -16301,10 +16301,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="7">
@@ -16316,10 +16316,10 @@
       <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7">
@@ -16331,10 +16331,10 @@
       <c r="E20" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16477,10 +16477,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16495,10 +16495,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -16511,10 +16511,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -16526,10 +16526,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -16544,10 +16544,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -16561,10 +16561,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -16576,10 +16576,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -16591,10 +16591,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="7">
@@ -16606,10 +16606,10 @@
       <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="30">
       <c r="B20" s="7">
@@ -16621,10 +16621,10 @@
       <c r="E20" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7" ht="45">
       <c r="B21" s="7">
@@ -16636,10 +16636,10 @@
       <c r="E21" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="18"/>
+      <c r="F21" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16656,8 +16656,8 @@
   </sheetPr>
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F20"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16782,10 +16782,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16800,10 +16800,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -16816,10 +16816,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -16831,10 +16831,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -16849,10 +16849,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -16866,10 +16866,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -16881,10 +16881,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -16896,10 +16896,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="7">
@@ -16911,10 +16911,10 @@
       <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="7">
@@ -16926,10 +16926,10 @@
       <c r="E20" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
@@ -17077,10 +17077,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -17095,10 +17095,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -17111,10 +17111,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -17126,10 +17126,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -17144,10 +17144,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -17161,10 +17161,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -17176,10 +17176,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -17191,10 +17191,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="7">
@@ -17206,10 +17206,10 @@
       <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="60">
       <c r="B20" s="7">
@@ -17221,10 +17221,10 @@
       <c r="E20" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
@@ -17372,10 +17372,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -17390,10 +17390,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -17406,10 +17406,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -17421,10 +17421,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -17439,10 +17439,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -17456,10 +17456,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -17471,10 +17471,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -17486,10 +17486,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="7">
@@ -17501,10 +17501,10 @@
       <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="45">
       <c r="B20" s="7">
@@ -17516,10 +17516,10 @@
       <c r="E20" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
@@ -17667,10 +17667,10 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -17685,10 +17685,10 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" customHeight="1">
       <c r="B13" s="7">
@@ -17701,10 +17701,10 @@
       <c r="E13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7">
@@ -17716,10 +17716,10 @@
       <c r="E14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="B15" s="7">
@@ -17734,10 +17734,10 @@
       <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="F15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -17751,10 +17751,10 @@
       <c r="E16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -17766,10 +17766,10 @@
       <c r="E17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="18"/>
+      <c r="F17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -17781,10 +17781,10 @@
       <c r="E18" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="18"/>
+      <c r="F18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="60">
       <c r="B19" s="7">
@@ -17796,10 +17796,10 @@
       <c r="E19" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="F19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="45">
       <c r="B20" s="7">
@@ -17811,10 +17811,10 @@
       <c r="E20" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="7"/>
@@ -18206,10 +18206,10 @@
       <c r="E11" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18226,10 +18226,10 @@
       <c r="E12" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="7">
@@ -18241,10 +18241,10 @@
       <c r="E13" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7"/>
@@ -18429,10 +18429,10 @@
       <c r="E11" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18449,10 +18449,10 @@
       <c r="E12" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="7">
@@ -18464,10 +18464,10 @@
       <c r="E13" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7"/>
@@ -18841,10 +18841,10 @@
       <c r="E11" t="s">
         <v>414</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -18861,10 +18861,10 @@
       <c r="E12" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="7">
@@ -18876,10 +18876,10 @@
       <c r="E13" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7"/>
@@ -19061,10 +19061,10 @@
       <c r="E11" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19079,10 +19079,10 @@
       <c r="E12" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="7">
@@ -19094,10 +19094,10 @@
       <c r="E13" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="7"/>
@@ -19153,8 +19153,8 @@
   </sheetPr>
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19476,7 +19476,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19494,7 +19494,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -19509,7 +19509,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -19527,7 +19527,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
@@ -19544,7 +19544,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="7"/>
@@ -19712,7 +19712,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19730,7 +19730,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -19745,7 +19745,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -19761,7 +19761,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -19780,7 +19780,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -19798,7 +19798,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -19816,7 +19816,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -19831,7 +19831,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="7">
@@ -19846,7 +19846,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19995,7 +19995,7 @@
       <c r="F11" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -20013,7 +20013,7 @@
       <c r="F12" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="B13" s="7">
@@ -20028,7 +20028,7 @@
       <c r="F13" t="s">
         <v>446</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30">
       <c r="B14" s="7">
@@ -20044,7 +20044,7 @@
       <c r="F14" t="s">
         <v>446</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="30">
@@ -20063,7 +20063,7 @@
       <c r="F15" t="s">
         <v>446</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="30">
       <c r="B16" s="7">
@@ -20081,7 +20081,7 @@
       <c r="F16" t="s">
         <v>446</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="7">
@@ -20099,7 +20099,7 @@
       <c r="F17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" ht="30">
       <c r="B18" s="7">
@@ -20114,7 +20114,7 @@
       <c r="F18" t="s">
         <v>446</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="7">
@@ -20129,7 +20129,7 @@
       <c r="F19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
